--- a/1999/robbery-1999.xlsx
+++ b/1999/robbery-1999.xlsx
@@ -190,9 +190,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Offender Age, Gender and Race</t>
-  </si>
-  <si>
     <t>Race</t>
   </si>
   <si>
@@ -235,10 +232,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Victim Age, Gender and Race</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Race</t>
@@ -283,7 +277,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -341,10 +335,10 @@
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
+      <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment horizontal="right"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,31 +349,31 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -481,53 +475,100 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="40.29"/>
+    <col min="1" customWidth="1" max="1" width="40.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c s="3" r="B2">
-        <v>1558.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c s="3" r="B3">
-        <v>726.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c s="3" r="B4">
-        <v>352.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>15</v>
-      </c>
-      <c t="str" s="3" r="B5">
-        <f>sum(B2:B4)</f>
-        <v>2636</v>
+        <v>21</v>
+      </c>
+      <c s="3" r="B5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c s="4" r="A6"/>
-      <c s="4" r="B6"/>
+      <c t="s" s="2" r="A6">
+        <v>22</v>
+      </c>
+      <c s="3" r="B6">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>23</v>
+      </c>
+      <c s="3" r="B7">
+        <v>858.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>24</v>
+      </c>
+      <c s="3" r="B8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>25</v>
+      </c>
+      <c s="3" r="B9">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>26</v>
+      </c>
+      <c s="3" r="B10">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
+        <v>27</v>
+      </c>
+      <c s="3" r="B11">
+        <v>1430.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c s="4" r="A12"/>
+      <c s="4" r="B12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -541,100 +582,53 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="40.43"/>
+    <col min="1" customWidth="1" max="1" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c s="3" r="B2">
-        <v>343.0</v>
+        <v>1558.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c s="3" r="B3">
-        <v>16.0</v>
+        <v>726.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c s="3" r="B4">
-        <v>15.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>21</v>
-      </c>
-      <c s="3" r="B5">
-        <v>0.0</v>
+        <v>15</v>
+      </c>
+      <c t="str" s="3" r="B5">
+        <f>sum(B2:B4)</f>
+        <v>2636</v>
       </c>
     </row>
     <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>22</v>
-      </c>
-      <c s="3" r="B6">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>23</v>
-      </c>
-      <c s="3" r="B7">
-        <v>858.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>24</v>
-      </c>
-      <c s="3" r="B8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>25</v>
-      </c>
-      <c s="3" r="B9">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>26</v>
-      </c>
-      <c s="3" r="B10">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>27</v>
-      </c>
-      <c s="3" r="B11">
-        <v>1430.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c s="4" r="A12"/>
-      <c s="4" r="B12"/>
+      <c s="4" r="A6"/>
+      <c s="4" r="B6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1148,59 +1142,57 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c t="s" s="6" r="A1">
+      <c t="s" r="A1">
         <v>57</v>
       </c>
-      <c s="1" r="H1"/>
-      <c s="1" r="I1"/>
-      <c s="1" r="J1"/>
-      <c s="1" r="K1"/>
-      <c s="1" r="L1"/>
-      <c s="1" r="M1"/>
-      <c s="1" r="N1"/>
-      <c s="1" r="O1"/>
-      <c s="1" r="P1"/>
-      <c s="1" r="Q1"/>
-      <c s="1" r="R1"/>
-      <c s="1" r="S1"/>
-      <c s="1" r="T1"/>
-      <c s="1" r="U1"/>
-      <c s="1" r="V1"/>
-      <c s="1" r="W1"/>
-      <c s="1" r="X1"/>
-      <c s="1" r="Y1"/>
-      <c s="1" r="Z1"/>
-      <c s="1" r="AA1"/>
+      <c t="s" s="1" r="B1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>59</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" r="A2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="E2">
+      <c t="s" s="6" r="B2">
         <v>60</v>
       </c>
+      <c t="s" s="6" r="C2">
+        <v>61</v>
+      </c>
+      <c t="s" s="6" r="D2">
+        <v>62</v>
+      </c>
+      <c t="s" s="6" r="E2">
+        <v>63</v>
+      </c>
+      <c t="s" s="6" r="F2">
+        <v>64</v>
+      </c>
+      <c t="s" s="6" r="G2">
+        <v>65</v>
+      </c>
     </row>
     <row r="3">
-      <c t="s" s="7" r="B3">
-        <v>61</v>
-      </c>
-      <c t="s" s="7" r="C3">
-        <v>62</v>
-      </c>
-      <c t="s" s="7" r="D3">
-        <v>63</v>
-      </c>
-      <c t="s" s="7" r="E3">
-        <v>64</v>
-      </c>
-      <c t="s" s="7" r="F3">
-        <v>65</v>
-      </c>
-      <c t="s" s="7" r="G3">
+      <c t="s" s="2" r="A3">
         <v>66</v>
+      </c>
+      <c s="3" r="B3">
+        <v>160.0</v>
+      </c>
+      <c s="3" r="C3">
+        <v>310.0</v>
+      </c>
+      <c s="3" r="D3">
+        <v>60.0</v>
+      </c>
+      <c s="3" r="E3">
+        <v>26.0</v>
+      </c>
+      <c s="3" r="F3">
+        <v>33.0</v>
+      </c>
+      <c s="3" r="G3">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -1208,22 +1200,22 @@
         <v>67</v>
       </c>
       <c s="3" r="B4">
-        <v>160.0</v>
+        <v>928.0</v>
       </c>
       <c s="3" r="C4">
-        <v>310.0</v>
+        <v>1434.0</v>
       </c>
       <c s="3" r="D4">
-        <v>60.0</v>
+        <v>235.0</v>
       </c>
       <c s="3" r="E4">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c s="3" r="F4">
-        <v>33.0</v>
+        <v>47.0</v>
       </c>
       <c s="3" r="G4">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
@@ -1231,22 +1223,22 @@
         <v>68</v>
       </c>
       <c s="3" r="B5">
-        <v>928.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="C5">
-        <v>1434.0</v>
+        <v>1.0</v>
       </c>
       <c s="3" r="D5">
-        <v>235.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="E5">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="F5">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="G5">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -1254,10 +1246,10 @@
         <v>69</v>
       </c>
       <c s="3" r="B6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="3" r="C6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="3" r="D6">
         <v>0.0</v>
@@ -1277,72 +1269,58 @@
         <v>70</v>
       </c>
       <c s="3" r="B7">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c s="3" r="C7">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c s="3" r="D7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="3" r="E7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="3" r="F7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="3" r="G7">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c t="s" s="2" r="A8">
+      <c t="s" s="7" r="A8">
         <v>71</v>
       </c>
       <c s="3" r="B8">
-        <v>40.0</v>
+        <v>1136.0</v>
       </c>
       <c s="3" r="C8">
-        <v>25.0</v>
+        <v>1775.0</v>
       </c>
       <c s="3" r="D8">
-        <v>2.0</v>
+        <v>297.0</v>
       </c>
       <c s="3" r="E8">
-        <v>1.0</v>
+        <v>67.0</v>
       </c>
       <c s="3" r="F8">
-        <v>1.0</v>
+        <v>81.0</v>
       </c>
       <c s="3" r="G8">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>72</v>
-      </c>
-      <c s="3" r="B9">
-        <v>1136.0</v>
-      </c>
-      <c s="3" r="C9">
-        <v>1775.0</v>
-      </c>
-      <c s="3" r="D9">
-        <v>297.0</v>
-      </c>
-      <c s="3" r="E9">
-        <v>67.0</v>
-      </c>
-      <c s="3" r="F9">
-        <v>81.0</v>
-      </c>
-      <c s="3" r="G9">
-        <v>21.0</v>
-      </c>
+      <c s="7" r="A9"/>
+      <c s="4" r="B9"/>
+      <c s="4" r="C9"/>
+      <c s="4" r="D9"/>
+      <c s="4" r="E9"/>
+      <c s="4" r="F9"/>
+      <c s="4" r="G9"/>
     </row>
     <row r="10">
-      <c s="6" r="A10"/>
+      <c s="7" r="A10"/>
       <c s="4" r="B10"/>
       <c s="4" r="C10"/>
       <c s="4" r="D10"/>
@@ -1351,13 +1329,7 @@
       <c s="4" r="G10"/>
     </row>
     <row r="11">
-      <c s="6" r="A11"/>
-      <c s="4" r="B11"/>
-      <c s="4" r="C11"/>
-      <c s="4" r="D11"/>
-      <c s="4" r="E11"/>
-      <c s="4" r="F11"/>
-      <c s="4" r="G11"/>
+      <c s="1" r="A11"/>
     </row>
     <row r="12">
       <c s="1" r="A12"/>
@@ -1923,15 +1895,11 @@
     <row r="199">
       <c s="1" r="A199"/>
     </row>
-    <row r="200">
-      <c s="1" r="A200"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1945,201 +1913,185 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
+      <c t="s" r="A1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="B1">
         <v>73</v>
       </c>
-      <c s="1" r="H1"/>
-      <c s="1" r="I1"/>
-      <c s="1" r="J1"/>
-      <c s="1" r="K1"/>
-      <c s="1" r="L1"/>
-      <c s="1" r="M1"/>
-      <c s="1" r="N1"/>
-      <c s="1" r="O1"/>
-      <c s="1" r="P1"/>
-      <c s="1" r="Q1"/>
-      <c s="1" r="R1"/>
-      <c s="1" r="S1"/>
-      <c s="1" r="T1"/>
-      <c s="1" r="U1"/>
-      <c s="1" r="V1"/>
-      <c s="1" r="W1"/>
-      <c s="1" r="X1"/>
-      <c s="1" r="Y1"/>
-      <c s="1" r="Z1"/>
-      <c s="1" r="AA1"/>
+      <c t="s" s="1" r="E1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" r="A2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="B2">
+      <c t="s" s="6" r="B2">
         <v>75</v>
       </c>
-      <c t="s" s="1" r="E2">
+      <c t="s" s="6" r="C2">
         <v>76</v>
       </c>
+      <c t="s" s="6" r="D2">
+        <v>77</v>
+      </c>
+      <c t="s" s="6" r="E2">
+        <v>78</v>
+      </c>
+      <c t="s" s="6" r="F2">
+        <v>79</v>
+      </c>
+      <c t="s" s="6" r="G2">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
-      <c t="s" s="7" r="B3">
-        <v>77</v>
-      </c>
-      <c t="s" s="7" r="C3">
-        <v>78</v>
-      </c>
-      <c t="s" s="7" r="D3">
-        <v>79</v>
-      </c>
-      <c t="s" s="7" r="E3">
-        <v>80</v>
-      </c>
-      <c t="s" s="7" r="F3">
+      <c t="s" s="2" r="A3">
         <v>81</v>
       </c>
-      <c t="s" s="7" r="G3">
-        <v>82</v>
+      <c s="3" r="B3">
+        <v>193.0</v>
+      </c>
+      <c s="3" r="C3">
+        <v>448.0</v>
+      </c>
+      <c s="3" r="D3">
+        <v>282.0</v>
+      </c>
+      <c s="3" r="E3">
+        <v>24.0</v>
+      </c>
+      <c s="3" r="F3">
+        <v>222.0</v>
+      </c>
+      <c s="3" r="G3">
+        <v>208.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c s="3" r="B4">
-        <v>193.0</v>
+        <v>133.0</v>
       </c>
       <c s="3" r="C4">
-        <v>448.0</v>
+        <v>466.0</v>
       </c>
       <c s="3" r="D4">
-        <v>282.0</v>
+        <v>251.0</v>
       </c>
       <c s="3" r="E4">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c s="3" r="F4">
-        <v>222.0</v>
+        <v>174.0</v>
       </c>
       <c s="3" r="G4">
-        <v>208.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c s="3" r="B5">
-        <v>133.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="C5">
-        <v>466.0</v>
+        <v>1.0</v>
       </c>
       <c s="3" r="D5">
-        <v>251.0</v>
+        <v>1.0</v>
       </c>
       <c s="3" r="E5">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="F5">
-        <v>174.0</v>
+        <v>0.0</v>
       </c>
       <c s="3" r="G5">
-        <v>97.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c s="3" r="B6">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="3" r="C6">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c s="3" r="D6">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c s="3" r="E6">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="3" r="F6">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c s="3" r="G6">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
+        <v>85</v>
+      </c>
+      <c s="3" r="B7">
+        <v>8.0</v>
+      </c>
+      <c s="3" r="C7">
+        <v>14.0</v>
+      </c>
+      <c s="3" r="D7">
+        <v>10.0</v>
+      </c>
+      <c s="3" r="E7">
+        <v>5.0</v>
+      </c>
+      <c s="3" r="F7">
+        <v>2.0</v>
+      </c>
+      <c s="3" r="G7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="7" r="A8">
         <v>86</v>
       </c>
-      <c s="3" r="B7">
-        <v>3.0</v>
-      </c>
-      <c s="3" r="C7">
-        <v>19.0</v>
-      </c>
-      <c s="3" r="D7">
-        <v>19.0</v>
-      </c>
-      <c s="3" r="E7">
-        <v>3.0</v>
-      </c>
-      <c s="3" r="F7">
-        <v>10.0</v>
-      </c>
-      <c s="3" r="G7">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>87</v>
-      </c>
       <c s="3" r="B8">
-        <v>8.0</v>
+        <v>337.0</v>
       </c>
       <c s="3" r="C8">
-        <v>14.0</v>
+        <v>948.0</v>
       </c>
       <c s="3" r="D8">
-        <v>10.0</v>
+        <v>563.0</v>
       </c>
       <c s="3" r="E8">
-        <v>5.0</v>
+        <v>53.0</v>
       </c>
       <c s="3" r="F8">
-        <v>2.0</v>
+        <v>408.0</v>
       </c>
       <c s="3" r="G8">
-        <v>1.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>88</v>
-      </c>
-      <c s="3" r="B9">
-        <v>337.0</v>
-      </c>
-      <c s="3" r="C9">
-        <v>948.0</v>
-      </c>
-      <c s="3" r="D9">
-        <v>563.0</v>
-      </c>
-      <c s="3" r="E9">
-        <v>53.0</v>
-      </c>
-      <c s="3" r="F9">
-        <v>408.0</v>
-      </c>
-      <c s="3" r="G9">
-        <v>318.0</v>
-      </c>
+      <c s="7" r="A9"/>
+      <c s="4" r="B9"/>
+      <c s="4" r="C9"/>
+      <c s="4" r="D9"/>
+      <c s="4" r="E9"/>
+      <c s="4" r="F9"/>
+      <c s="4" r="G9"/>
     </row>
     <row r="10">
-      <c s="6" r="A10"/>
+      <c s="7" r="A10"/>
       <c s="4" r="B10"/>
       <c s="4" r="C10"/>
       <c s="4" r="D10"/>
@@ -2148,7 +2100,7 @@
       <c s="4" r="G10"/>
     </row>
     <row r="11">
-      <c s="6" r="A11"/>
+      <c s="7" r="A11"/>
       <c s="4" r="B11"/>
       <c s="4" r="C11"/>
       <c s="4" r="D11"/>
@@ -2157,13 +2109,7 @@
       <c s="4" r="G11"/>
     </row>
     <row r="12">
-      <c s="6" r="A12"/>
-      <c s="4" r="B12"/>
-      <c s="4" r="C12"/>
-      <c s="4" r="D12"/>
-      <c s="4" r="E12"/>
-      <c s="4" r="F12"/>
-      <c s="4" r="G12"/>
+      <c s="1" r="A12"/>
     </row>
     <row r="13">
       <c s="1" r="A13"/>
@@ -2726,15 +2672,11 @@
     <row r="199">
       <c s="1" r="A199"/>
     </row>
-    <row r="200">
-      <c s="1" r="A200"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
